--- a/data-raw/controlled_vocab_mapping.xlsx
+++ b/data-raw/controlled_vocab_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758576F4-7AA4-4DF6-A8B8-9B83A499FA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A82074-7ED8-416D-B794-7F0E7DA939DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{86950A22-EF96-470E-9EC4-A018FD5DBEF2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="480">
   <si>
     <t>machine_name</t>
   </si>
@@ -1467,6 +1467,9 @@
   </si>
   <si>
     <t>list_value_name</t>
+  </si>
+  <si>
+    <t>is_dataset</t>
   </si>
 </sst>
 </file>
@@ -1856,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28C184-6D7E-43FA-B606-BF9631A08DC0}">
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1872,7 @@
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1879,8 +1882,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1890,8 +1896,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1901,8 +1910,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1912,8 +1924,11 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1923,8 +1938,11 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1934,8 +1952,11 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +1966,11 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1956,8 +1980,11 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1967,8 +1994,11 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1978,8 +2008,11 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1989,8 +2022,11 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2000,8 +2036,11 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2011,8 +2050,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2022,8 +2064,11 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2033,8 +2078,11 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -2044,8 +2092,11 @@
       <c r="C16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2055,8 +2106,11 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2066,8 +2120,11 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2077,8 +2134,11 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2088,8 +2148,11 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2099,8 +2162,11 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2110,8 +2176,11 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -2121,8 +2190,11 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -2132,8 +2204,11 @@
       <c r="C24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2143,8 +2218,11 @@
       <c r="C25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -2154,8 +2232,11 @@
       <c r="C26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2165,8 +2246,11 @@
       <c r="C27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -2176,8 +2260,11 @@
       <c r="C28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -2187,8 +2274,11 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -2198,8 +2288,11 @@
       <c r="C30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -2209,8 +2302,11 @@
       <c r="C31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -2220,8 +2316,11 @@
       <c r="C32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -2231,8 +2330,11 @@
       <c r="C33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -2242,8 +2344,11 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -2253,8 +2358,11 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -2264,8 +2372,11 @@
       <c r="C36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2275,8 +2386,11 @@
       <c r="C37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="C38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -2297,8 +2414,11 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -2308,8 +2428,11 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -2319,8 +2442,11 @@
       <c r="C41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2330,8 +2456,11 @@
       <c r="C42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -2341,8 +2470,11 @@
       <c r="C43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -2352,8 +2484,11 @@
       <c r="C44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -2363,8 +2498,11 @@
       <c r="C45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +2512,11 @@
       <c r="C46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -2385,8 +2526,11 @@
       <c r="C47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2396,8 +2540,11 @@
       <c r="C48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2407,8 +2554,11 @@
       <c r="C49" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -2418,8 +2568,11 @@
       <c r="C50" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -2429,8 +2582,11 @@
       <c r="C51" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2596,11 @@
       <c r="C52" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -2451,8 +2610,11 @@
       <c r="C53" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="C54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -2473,8 +2638,11 @@
       <c r="C55" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -2484,8 +2652,11 @@
       <c r="C56" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -2495,8 +2666,11 @@
       <c r="C57" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -2506,8 +2680,11 @@
       <c r="C58" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -2517,8 +2694,11 @@
       <c r="C59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -2528,8 +2708,11 @@
       <c r="C60" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -2539,8 +2722,11 @@
       <c r="C61" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -2550,8 +2736,11 @@
       <c r="C62" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -2561,8 +2750,11 @@
       <c r="C63" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -2572,8 +2764,11 @@
       <c r="C64" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2778,11 @@
       <c r="C65" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -2594,8 +2792,11 @@
       <c r="C66" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -2605,8 +2806,11 @@
       <c r="C67" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -2616,8 +2820,11 @@
       <c r="C68" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -2627,8 +2834,11 @@
       <c r="C69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -2638,8 +2848,11 @@
       <c r="C70" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -2649,8 +2862,11 @@
       <c r="C71" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -2660,8 +2876,11 @@
       <c r="C72" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -2671,8 +2890,11 @@
       <c r="C73" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -2682,8 +2904,11 @@
       <c r="C74" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -2693,8 +2918,11 @@
       <c r="C75" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2932,11 @@
       <c r="C76" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -2715,8 +2946,11 @@
       <c r="C77" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -2726,8 +2960,11 @@
       <c r="C78" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -2737,8 +2974,11 @@
       <c r="C79" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -2748,8 +2988,11 @@
       <c r="C80" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -2759,8 +3002,11 @@
       <c r="C81" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -2770,8 +3016,11 @@
       <c r="C82" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -2781,8 +3030,11 @@
       <c r="C83" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -2792,8 +3044,11 @@
       <c r="C84" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -2803,8 +3058,11 @@
       <c r="C85" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -2814,8 +3072,11 @@
       <c r="C86" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -2825,8 +3086,11 @@
       <c r="C87" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2836,8 +3100,11 @@
       <c r="C88" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
@@ -2847,8 +3114,11 @@
       <c r="C89" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -2858,8 +3128,11 @@
       <c r="C90" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -2869,8 +3142,11 @@
       <c r="C91" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -2880,8 +3156,11 @@
       <c r="C92" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -2891,8 +3170,11 @@
       <c r="C93" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -2902,8 +3184,11 @@
       <c r="C94" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -2913,8 +3198,11 @@
       <c r="C95" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -2924,8 +3212,11 @@
       <c r="C96" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -2935,8 +3226,11 @@
       <c r="C97" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -2946,8 +3240,11 @@
       <c r="C98" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -2957,8 +3254,11 @@
       <c r="C99" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -2968,8 +3268,11 @@
       <c r="C100" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
@@ -2979,8 +3282,11 @@
       <c r="C101" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -2990,8 +3296,11 @@
       <c r="C102" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -3001,8 +3310,11 @@
       <c r="C103" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
@@ -3012,8 +3324,11 @@
       <c r="C104" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -3023,8 +3338,11 @@
       <c r="C105" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>16</v>
       </c>
@@ -3034,8 +3352,11 @@
       <c r="C106" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3366,11 @@
       <c r="C107" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -3056,8 +3380,11 @@
       <c r="C108" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -3067,8 +3394,11 @@
       <c r="C109" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -3078,8 +3408,11 @@
       <c r="C110" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>16</v>
       </c>
@@ -3089,8 +3422,11 @@
       <c r="C111" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
@@ -3100,8 +3436,11 @@
       <c r="C112" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>16</v>
       </c>
@@ -3111,8 +3450,11 @@
       <c r="C113" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
@@ -3122,8 +3464,11 @@
       <c r="C114" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -3133,8 +3478,11 @@
       <c r="C115" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -3144,8 +3492,11 @@
       <c r="C116" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -3155,8 +3506,11 @@
       <c r="C117" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
@@ -3166,8 +3520,11 @@
       <c r="C118" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -3177,8 +3534,11 @@
       <c r="C119" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>16</v>
       </c>
@@ -3188,8 +3548,11 @@
       <c r="C120" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -3199,8 +3562,11 @@
       <c r="C121" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>16</v>
       </c>
@@ -3210,8 +3576,11 @@
       <c r="C122" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>16</v>
       </c>
@@ -3221,8 +3590,11 @@
       <c r="C123" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>16</v>
       </c>
@@ -3232,8 +3604,11 @@
       <c r="C124" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>16</v>
       </c>
@@ -3243,8 +3618,11 @@
       <c r="C125" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -3254,8 +3632,11 @@
       <c r="C126" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -3265,8 +3646,11 @@
       <c r="C127" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>16</v>
       </c>
@@ -3276,8 +3660,11 @@
       <c r="C128" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>16</v>
       </c>
@@ -3287,8 +3674,11 @@
       <c r="C129" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>16</v>
       </c>
@@ -3298,8 +3688,11 @@
       <c r="C130" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
@@ -3309,8 +3702,11 @@
       <c r="C131" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -3320,8 +3716,11 @@
       <c r="C132" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
@@ -3331,8 +3730,11 @@
       <c r="C133" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
@@ -3342,8 +3744,11 @@
       <c r="C134" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>16</v>
       </c>
@@ -3353,8 +3758,11 @@
       <c r="C135" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>16</v>
       </c>
@@ -3364,8 +3772,11 @@
       <c r="C136" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>16</v>
       </c>
@@ -3375,8 +3786,11 @@
       <c r="C137" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3800,11 @@
       <c r="C138" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>16</v>
       </c>
@@ -3397,8 +3814,11 @@
       <c r="C139" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>16</v>
       </c>
@@ -3408,8 +3828,11 @@
       <c r="C140" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
@@ -3419,8 +3842,11 @@
       <c r="C141" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
@@ -3430,8 +3856,11 @@
       <c r="C142" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>16</v>
       </c>
@@ -3441,8 +3870,11 @@
       <c r="C143" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>16</v>
       </c>
@@ -3452,8 +3884,11 @@
       <c r="C144" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3463,8 +3898,11 @@
       <c r="C145" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
@@ -3474,8 +3912,11 @@
       <c r="C146" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>16</v>
       </c>
@@ -3485,8 +3926,11 @@
       <c r="C147" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>16</v>
       </c>
@@ -3496,8 +3940,11 @@
       <c r="C148" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>16</v>
       </c>
@@ -3507,8 +3954,11 @@
       <c r="C149" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>16</v>
       </c>
@@ -3518,8 +3968,11 @@
       <c r="C150" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>16</v>
       </c>
@@ -3529,8 +3982,11 @@
       <c r="C151" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>16</v>
       </c>
@@ -3540,8 +3996,11 @@
       <c r="C152" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>16</v>
       </c>
@@ -3551,8 +4010,11 @@
       <c r="C153" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
@@ -3562,8 +4024,11 @@
       <c r="C154" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>16</v>
       </c>
@@ -3573,8 +4038,11 @@
       <c r="C155" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>16</v>
       </c>
@@ -3584,8 +4052,11 @@
       <c r="C156" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>16</v>
       </c>
@@ -3595,8 +4066,11 @@
       <c r="C157" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>16</v>
       </c>
@@ -3606,8 +4080,11 @@
       <c r="C158" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>16</v>
       </c>
@@ -3617,8 +4094,11 @@
       <c r="C159" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>16</v>
       </c>
@@ -3628,8 +4108,11 @@
       <c r="C160" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>16</v>
       </c>
@@ -3639,8 +4122,11 @@
       <c r="C161" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +4136,11 @@
       <c r="C162" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>16</v>
       </c>
@@ -3661,8 +4150,11 @@
       <c r="C163" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3672,8 +4164,11 @@
       <c r="C164" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>16</v>
       </c>
@@ -3683,8 +4178,11 @@
       <c r="C165" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>16</v>
       </c>
@@ -3694,8 +4192,11 @@
       <c r="C166" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>16</v>
       </c>
@@ -3705,8 +4206,11 @@
       <c r="C167" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>16</v>
       </c>
@@ -3716,8 +4220,11 @@
       <c r="C168" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>16</v>
       </c>
@@ -3727,8 +4234,11 @@
       <c r="C169" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>16</v>
       </c>
@@ -3738,8 +4248,11 @@
       <c r="C170" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>16</v>
       </c>
@@ -3749,8 +4262,11 @@
       <c r="C171" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>16</v>
       </c>
@@ -3760,8 +4276,11 @@
       <c r="C172" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>16</v>
       </c>
@@ -3771,8 +4290,11 @@
       <c r="C173" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>16</v>
       </c>
@@ -3782,8 +4304,11 @@
       <c r="C174" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
@@ -3793,8 +4318,11 @@
       <c r="C175" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>16</v>
       </c>
@@ -3804,8 +4332,11 @@
       <c r="C176" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>16</v>
       </c>
@@ -3815,8 +4346,11 @@
       <c r="C177" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>16</v>
       </c>
@@ -3826,8 +4360,11 @@
       <c r="C178" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>16</v>
       </c>
@@ -3837,8 +4374,11 @@
       <c r="C179" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>16</v>
       </c>
@@ -3848,8 +4388,11 @@
       <c r="C180" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>16</v>
       </c>
@@ -3859,8 +4402,11 @@
       <c r="C181" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -3870,8 +4416,11 @@
       <c r="C182" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3881,8 +4430,11 @@
       <c r="C183" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -3892,8 +4444,11 @@
       <c r="C184" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -3903,8 +4458,11 @@
       <c r="C185" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -3914,8 +4472,11 @@
       <c r="C186" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -3925,8 +4486,11 @@
       <c r="C187" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -3936,8 +4500,11 @@
       <c r="C188" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -3947,8 +4514,11 @@
       <c r="C189" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -3958,8 +4528,11 @@
       <c r="C190" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -3969,8 +4542,11 @@
       <c r="C191" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -3980,8 +4556,11 @@
       <c r="C192" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -3991,8 +4570,11 @@
       <c r="C193" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>16</v>
       </c>
@@ -4002,8 +4584,11 @@
       <c r="C194" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>16</v>
       </c>
@@ -4013,8 +4598,11 @@
       <c r="C195" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>16</v>
       </c>
@@ -4024,8 +4612,11 @@
       <c r="C196" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>16</v>
       </c>
@@ -4035,8 +4626,11 @@
       <c r="C197" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>16</v>
       </c>
@@ -4046,8 +4640,11 @@
       <c r="C198" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>16</v>
       </c>
@@ -4057,8 +4654,11 @@
       <c r="C199" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>16</v>
       </c>
@@ -4068,8 +4668,11 @@
       <c r="C200" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>16</v>
       </c>
@@ -4079,8 +4682,11 @@
       <c r="C201" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>16</v>
       </c>
@@ -4090,8 +4696,11 @@
       <c r="C202" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>16</v>
       </c>
@@ -4101,8 +4710,11 @@
       <c r="C203" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>16</v>
       </c>
@@ -4112,8 +4724,11 @@
       <c r="C204" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>16</v>
       </c>
@@ -4123,8 +4738,11 @@
       <c r="C205" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>16</v>
       </c>
@@ -4134,8 +4752,11 @@
       <c r="C206" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>16</v>
       </c>
@@ -4145,8 +4766,11 @@
       <c r="C207" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>16</v>
       </c>
@@ -4156,8 +4780,11 @@
       <c r="C208" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>16</v>
       </c>
@@ -4167,8 +4794,11 @@
       <c r="C209" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>16</v>
       </c>
@@ -4178,8 +4808,11 @@
       <c r="C210" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>16</v>
       </c>
@@ -4189,8 +4822,11 @@
       <c r="C211" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>16</v>
       </c>
@@ -4200,8 +4836,11 @@
       <c r="C212" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>16</v>
       </c>
@@ -4211,8 +4850,11 @@
       <c r="C213" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>16</v>
       </c>
@@ -4222,8 +4864,11 @@
       <c r="C214" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>16</v>
       </c>
@@ -4233,8 +4878,11 @@
       <c r="C215" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>16</v>
       </c>
@@ -4244,8 +4892,11 @@
       <c r="C216" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>16</v>
       </c>
@@ -4255,8 +4906,11 @@
       <c r="C217" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>16</v>
       </c>
@@ -4266,8 +4920,11 @@
       <c r="C218" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>16</v>
       </c>
@@ -4277,8 +4934,11 @@
       <c r="C219" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>16</v>
       </c>
@@ -4288,8 +4948,11 @@
       <c r="C220" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>16</v>
       </c>
@@ -4299,8 +4962,11 @@
       <c r="C221" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>16</v>
       </c>
@@ -4310,8 +4976,11 @@
       <c r="C222" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>16</v>
       </c>
@@ -4321,8 +4990,11 @@
       <c r="C223" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>16</v>
       </c>
@@ -4332,8 +5004,11 @@
       <c r="C224" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>16</v>
       </c>
@@ -4343,8 +5018,11 @@
       <c r="C225" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>16</v>
       </c>
@@ -4354,8 +5032,11 @@
       <c r="C226" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>16</v>
       </c>
@@ -4365,8 +5046,11 @@
       <c r="C227" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>16</v>
       </c>
@@ -4376,8 +5060,11 @@
       <c r="C228" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>16</v>
       </c>
@@ -4387,8 +5074,11 @@
       <c r="C229" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>16</v>
       </c>
@@ -4398,8 +5088,11 @@
       <c r="C230" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>16</v>
       </c>
@@ -4409,8 +5102,11 @@
       <c r="C231" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>16</v>
       </c>
@@ -4420,8 +5116,11 @@
       <c r="C232" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>16</v>
       </c>
@@ -4431,8 +5130,11 @@
       <c r="C233" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>16</v>
       </c>
@@ -4442,8 +5144,11 @@
       <c r="C234" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>16</v>
       </c>
@@ -4453,8 +5158,11 @@
       <c r="C235" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>16</v>
       </c>
@@ -4464,8 +5172,11 @@
       <c r="C236" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>16</v>
       </c>
@@ -4475,8 +5186,11 @@
       <c r="C237" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>16</v>
       </c>
@@ -4486,8 +5200,11 @@
       <c r="C238" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>16</v>
       </c>
@@ -4497,8 +5214,11 @@
       <c r="C239" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>16</v>
       </c>
@@ -4508,8 +5228,11 @@
       <c r="C240" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>16</v>
       </c>
@@ -4519,8 +5242,11 @@
       <c r="C241" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>16</v>
       </c>
@@ -4530,8 +5256,11 @@
       <c r="C242" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>16</v>
       </c>
@@ -4541,8 +5270,11 @@
       <c r="C243" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>16</v>
       </c>
@@ -4552,8 +5284,11 @@
       <c r="C244" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>16</v>
       </c>
@@ -4563,8 +5298,11 @@
       <c r="C245" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>16</v>
       </c>
@@ -4574,8 +5312,11 @@
       <c r="C246" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>16</v>
       </c>
@@ -4585,8 +5326,11 @@
       <c r="C247" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>16</v>
       </c>
@@ -4596,8 +5340,11 @@
       <c r="C248" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>16</v>
       </c>
@@ -4607,8 +5354,11 @@
       <c r="C249" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>16</v>
       </c>
@@ -4618,8 +5368,11 @@
       <c r="C250" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>16</v>
       </c>
@@ -4629,8 +5382,11 @@
       <c r="C251" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>16</v>
       </c>
@@ -4640,8 +5396,11 @@
       <c r="C252" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>16</v>
       </c>
@@ -4651,8 +5410,11 @@
       <c r="C253" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>16</v>
       </c>
@@ -4662,8 +5424,11 @@
       <c r="C254" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>16</v>
       </c>
@@ -4673,8 +5438,11 @@
       <c r="C255" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>16</v>
       </c>
@@ -4683,6 +5451,9 @@
       </c>
       <c r="C256" s="3" t="s">
         <v>477</v>
+      </c>
+      <c r="D256" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/controlled_vocab_mapping.xlsx
+++ b/data-raw/controlled_vocab_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A82074-7ED8-416D-B794-7F0E7DA939DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041DB46-C88C-4313-B089-F8FBE4349FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{86950A22-EF96-470E-9EC4-A018FD5DBEF2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="493">
   <si>
     <t>machine_name</t>
   </si>
@@ -1470,6 +1470,45 @@
   </si>
   <si>
     <t>is_dataset</t>
+  </si>
+  <si>
+    <t>field_ddh_harvest_sys_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>field_wbddh_release_date</t>
+  </si>
+  <si>
+    <t>field_wbddh_end_date</t>
+  </si>
+  <si>
+    <t>field_ddh_external_contact_email</t>
+  </si>
+  <si>
+    <t>field_wbddh_start_date</t>
+  </si>
+  <si>
+    <t>field_wbddh_publisher_name</t>
+  </si>
+  <si>
+    <t>field_wbddh_source</t>
+  </si>
+  <si>
+    <t>field_wbddh_modified_date</t>
+  </si>
+  <si>
+    <t>field_upload</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -1859,15 +1898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28C184-6D7E-43FA-B606-BF9631A08DC0}">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D256"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258:XFD258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5456,6 +5495,110 @@
         <v>1</v>
       </c>
     </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>480</v>
+      </c>
+      <c r="D257" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>481</v>
+      </c>
+      <c r="D258" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>482</v>
+      </c>
+      <c r="D259" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>483</v>
+      </c>
+      <c r="D260" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>484</v>
+      </c>
+      <c r="D261" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>485</v>
+      </c>
+      <c r="D262" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>486</v>
+      </c>
+      <c r="D263" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>487</v>
+      </c>
+      <c r="D264" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>488</v>
+      </c>
+      <c r="D265" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>489</v>
+      </c>
+      <c r="D266" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>482</v>
+      </c>
+      <c r="D267" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>481</v>
+      </c>
+      <c r="D268" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>490</v>
+      </c>
+      <c r="D269" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data-raw/controlled_vocab_mapping.xlsx
+++ b/data-raw/controlled_vocab_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041DB46-C88C-4313-B089-F8FBE4349FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EED1E9-48EC-4768-BD90-FD91403D13F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{86950A22-EF96-470E-9EC4-A018FD5DBEF2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="501">
   <si>
     <t>machine_name</t>
   </si>
@@ -1509,6 +1509,30 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>CC0 1.0</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution 4.0</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-NonCommercial 4.0</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution Share-Alike 4.0</t>
+  </si>
+  <si>
+    <t>Open Database License</t>
+  </si>
+  <si>
+    <t>Open Data Commons Open Database License 1.0</t>
+  </si>
+  <si>
+    <t>field_license_wbddh</t>
   </si>
 </sst>
 </file>
@@ -1576,12 +1600,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1898,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28C184-6D7E-43FA-B606-BF9631A08DC0}">
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258:XFD258"/>
+      <selection activeCell="I269" sqref="I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,6 +5626,76 @@
         <v>492</v>
       </c>
     </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>500</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>500</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>500</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>500</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>500</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D274" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data-raw/controlled_vocab_mapping.xlsx
+++ b/data-raw/controlled_vocab_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EED1E9-48EC-4768-BD90-FD91403D13F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7C6A4-BF7B-4067-9E93-F4ABE6B17DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{86950A22-EF96-470E-9EC4-A018FD5DBEF2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="498">
   <si>
     <t>machine_name</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>PNG</t>
-  </si>
-  <si>
-    <t>field_wbddh_region</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>AFR</t>
   </si>
   <si>
     <t>East Asia &amp; Pacific</t>
@@ -1539,7 +1530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,11 +1563,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1600,12 +1586,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1925,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28C184-6D7E-43FA-B606-BF9631A08DC0}">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="I269" sqref="I269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,93 +1928,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="b">
@@ -2038,13 +2023,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2052,13 +2037,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2066,13 +2051,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2080,13 +2065,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -2094,13 +2079,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -2108,13 +2093,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2122,13 +2107,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -2136,13 +2121,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -2150,13 +2135,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -2164,13 +2149,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2178,13 +2163,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2192,13 +2177,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2206,13 +2191,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2220,13 +2205,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2234,13 +2219,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2248,13 +2233,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2262,13 +2247,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2276,13 +2261,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2290,13 +2275,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2304,13 +2289,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2318,13 +2303,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2332,13 +2317,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2346,13 +2331,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2360,13 +2345,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2374,13 +2359,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2388,13 +2373,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2402,13 +2387,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2416,13 +2401,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2430,13 +2415,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2444,13 +2429,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2458,13 +2443,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2472,13 +2457,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2486,13 +2471,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2500,13 +2485,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2514,13 +2499,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -2528,13 +2513,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>441</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2542,13 +2527,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>444</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -2556,13 +2541,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2570,13 +2555,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -2584,13 +2569,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
         <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2598,13 +2583,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2612,13 +2597,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -2626,13 +2611,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
         <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -2640,13 +2625,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2654,13 +2639,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>441</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2668,13 +2653,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>444</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -2682,13 +2667,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
         <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>108</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2696,13 +2681,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
         <v>109</v>
-      </c>
-      <c r="C55" t="s">
-        <v>110</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2710,13 +2695,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
         <v>111</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -2724,13 +2709,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
         <v>113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -2738,13 +2723,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
         <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>116</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2752,13 +2737,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>118</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -2766,13 +2751,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" t="s">
-        <v>120</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2780,13 +2765,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2794,13 +2779,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -2808,13 +2793,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2822,13 +2807,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -2836,13 +2821,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
         <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2850,13 +2835,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>132</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -2864,13 +2849,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
         <v>133</v>
-      </c>
-      <c r="C67" t="s">
-        <v>134</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -2878,13 +2863,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
         <v>135</v>
-      </c>
-      <c r="C68" t="s">
-        <v>136</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2892,13 +2877,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
         <v>137</v>
-      </c>
-      <c r="C69" t="s">
-        <v>138</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2906,13 +2891,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
         <v>139</v>
-      </c>
-      <c r="C70" t="s">
-        <v>140</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -2920,13 +2905,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
         <v>141</v>
-      </c>
-      <c r="C71" t="s">
-        <v>142</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -2934,13 +2919,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -2948,13 +2933,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
         <v>145</v>
-      </c>
-      <c r="C73" t="s">
-        <v>146</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2962,13 +2947,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
         <v>147</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -2976,13 +2961,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
         <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -2990,13 +2975,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
         <v>151</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -3004,13 +2989,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" t="s">
         <v>153</v>
-      </c>
-      <c r="C77" t="s">
-        <v>154</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3018,13 +3003,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
         <v>155</v>
-      </c>
-      <c r="C78" t="s">
-        <v>156</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -3032,13 +3017,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
         <v>157</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -3046,13 +3031,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
         <v>159</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -3060,13 +3045,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
         <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>162</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3074,13 +3059,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
         <v>163</v>
-      </c>
-      <c r="C82" t="s">
-        <v>164</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -3088,13 +3073,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
         <v>165</v>
-      </c>
-      <c r="C83" t="s">
-        <v>166</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -3102,13 +3087,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
         <v>167</v>
-      </c>
-      <c r="C84" t="s">
-        <v>168</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -3116,13 +3101,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
         <v>169</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -3130,13 +3115,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
         <v>171</v>
-      </c>
-      <c r="C86" t="s">
-        <v>172</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3144,13 +3129,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" t="s">
         <v>173</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -3158,13 +3143,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" t="s">
         <v>175</v>
-      </c>
-      <c r="C88" t="s">
-        <v>176</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -3172,13 +3157,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" t="s">
         <v>177</v>
-      </c>
-      <c r="C89" t="s">
-        <v>178</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -3186,13 +3171,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" t="s">
         <v>179</v>
-      </c>
-      <c r="C90" t="s">
-        <v>180</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -3200,13 +3185,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
         <v>181</v>
-      </c>
-      <c r="C91" t="s">
-        <v>182</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -3214,13 +3199,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" t="s">
         <v>183</v>
-      </c>
-      <c r="C92" t="s">
-        <v>184</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -3228,13 +3213,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" t="s">
         <v>185</v>
-      </c>
-      <c r="C93" t="s">
-        <v>186</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -3242,13 +3227,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" t="s">
         <v>187</v>
-      </c>
-      <c r="C94" t="s">
-        <v>188</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -3256,13 +3241,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" t="s">
         <v>189</v>
-      </c>
-      <c r="C95" t="s">
-        <v>190</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3270,13 +3255,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
         <v>191</v>
-      </c>
-      <c r="C96" t="s">
-        <v>192</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -3284,13 +3269,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
         <v>193</v>
-      </c>
-      <c r="C97" t="s">
-        <v>194</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3298,13 +3283,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" t="s">
         <v>195</v>
-      </c>
-      <c r="C98" t="s">
-        <v>196</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -3312,13 +3297,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" t="s">
         <v>197</v>
-      </c>
-      <c r="C99" t="s">
-        <v>198</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -3326,13 +3311,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" t="s">
         <v>199</v>
-      </c>
-      <c r="C100" t="s">
-        <v>200</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3340,13 +3325,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
         <v>201</v>
-      </c>
-      <c r="C101" t="s">
-        <v>202</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3354,13 +3339,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
         <v>203</v>
-      </c>
-      <c r="C102" t="s">
-        <v>204</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3368,13 +3353,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
         <v>205</v>
-      </c>
-      <c r="C103" t="s">
-        <v>206</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -3382,13 +3367,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
         <v>207</v>
-      </c>
-      <c r="C104" t="s">
-        <v>208</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -3396,13 +3381,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" t="s">
         <v>209</v>
-      </c>
-      <c r="C105" t="s">
-        <v>210</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -3410,13 +3395,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" t="s">
         <v>211</v>
-      </c>
-      <c r="C106" t="s">
-        <v>212</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3424,13 +3409,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
         <v>213</v>
-      </c>
-      <c r="C107" t="s">
-        <v>214</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -3438,13 +3423,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" t="s">
         <v>215</v>
-      </c>
-      <c r="C108" t="s">
-        <v>216</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -3452,13 +3437,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
         <v>217</v>
-      </c>
-      <c r="C109" t="s">
-        <v>218</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3466,13 +3451,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" t="s">
         <v>219</v>
-      </c>
-      <c r="C110" t="s">
-        <v>220</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3480,13 +3465,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" t="s">
         <v>221</v>
-      </c>
-      <c r="C111" t="s">
-        <v>222</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3494,13 +3479,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" t="s">
         <v>223</v>
-      </c>
-      <c r="C112" t="s">
-        <v>224</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3508,13 +3493,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="s">
         <v>225</v>
-      </c>
-      <c r="C113" t="s">
-        <v>226</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3522,13 +3507,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
         <v>227</v>
-      </c>
-      <c r="C114" t="s">
-        <v>228</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3536,13 +3521,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" t="s">
         <v>229</v>
-      </c>
-      <c r="C115" t="s">
-        <v>230</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -3550,13 +3535,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
         <v>231</v>
-      </c>
-      <c r="C116" t="s">
-        <v>232</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
@@ -3564,13 +3549,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" t="s">
         <v>233</v>
-      </c>
-      <c r="C117" t="s">
-        <v>234</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -3578,13 +3563,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
         <v>235</v>
-      </c>
-      <c r="C118" t="s">
-        <v>236</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -3592,13 +3577,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
         <v>237</v>
-      </c>
-      <c r="C119" t="s">
-        <v>238</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -3606,13 +3591,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" t="s">
         <v>239</v>
-      </c>
-      <c r="C120" t="s">
-        <v>240</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3620,13 +3605,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" t="s">
         <v>241</v>
-      </c>
-      <c r="C121" t="s">
-        <v>242</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -3634,13 +3619,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="s">
         <v>243</v>
-      </c>
-      <c r="C122" t="s">
-        <v>244</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -3648,13 +3633,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" t="s">
         <v>245</v>
-      </c>
-      <c r="C123" t="s">
-        <v>246</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -3662,13 +3647,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" t="s">
         <v>247</v>
-      </c>
-      <c r="C124" t="s">
-        <v>248</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -3676,13 +3661,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
         <v>249</v>
-      </c>
-      <c r="C125" t="s">
-        <v>250</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -3690,13 +3675,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" t="s">
         <v>251</v>
-      </c>
-      <c r="C126" t="s">
-        <v>252</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -3704,13 +3689,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" t="s">
         <v>253</v>
-      </c>
-      <c r="C127" t="s">
-        <v>254</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -3718,13 +3703,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" t="s">
         <v>255</v>
-      </c>
-      <c r="C128" t="s">
-        <v>256</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
@@ -3732,13 +3717,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
         <v>257</v>
-      </c>
-      <c r="C129" t="s">
-        <v>258</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -3746,13 +3731,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
         <v>259</v>
-      </c>
-      <c r="C130" t="s">
-        <v>260</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -3760,13 +3745,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
         <v>261</v>
-      </c>
-      <c r="C131" t="s">
-        <v>262</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -3774,13 +3759,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" t="s">
         <v>263</v>
-      </c>
-      <c r="C132" t="s">
-        <v>264</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -3788,13 +3773,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" t="s">
         <v>265</v>
-      </c>
-      <c r="C133" t="s">
-        <v>266</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -3802,13 +3787,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" t="s">
         <v>267</v>
-      </c>
-      <c r="C134" t="s">
-        <v>268</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -3816,13 +3801,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s">
         <v>269</v>
-      </c>
-      <c r="C135" t="s">
-        <v>270</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -3830,13 +3815,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
         <v>271</v>
-      </c>
-      <c r="C136" t="s">
-        <v>272</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -3844,13 +3829,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" t="s">
         <v>273</v>
-      </c>
-      <c r="C137" t="s">
-        <v>274</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -3858,13 +3843,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" t="s">
         <v>275</v>
-      </c>
-      <c r="C138" t="s">
-        <v>276</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -3872,13 +3857,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s">
         <v>277</v>
-      </c>
-      <c r="C139" t="s">
-        <v>278</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -3886,13 +3871,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
         <v>279</v>
-      </c>
-      <c r="C140" t="s">
-        <v>280</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -3900,13 +3885,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" t="s">
         <v>281</v>
-      </c>
-      <c r="C141" t="s">
-        <v>282</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -3914,13 +3899,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" t="s">
         <v>283</v>
-      </c>
-      <c r="C142" t="s">
-        <v>284</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -3928,13 +3913,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
         <v>285</v>
-      </c>
-      <c r="C143" t="s">
-        <v>286</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -3942,13 +3927,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" t="s">
         <v>287</v>
-      </c>
-      <c r="C144" t="s">
-        <v>288</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -3956,13 +3941,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" t="s">
         <v>289</v>
-      </c>
-      <c r="C145" t="s">
-        <v>290</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -3970,13 +3955,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" t="s">
         <v>291</v>
-      </c>
-      <c r="C146" t="s">
-        <v>292</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -3984,13 +3969,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
         <v>293</v>
-      </c>
-      <c r="C147" t="s">
-        <v>294</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
@@ -3998,13 +3983,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" t="s">
         <v>295</v>
-      </c>
-      <c r="C148" t="s">
-        <v>296</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -4012,13 +3997,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" t="s">
         <v>297</v>
-      </c>
-      <c r="C149" t="s">
-        <v>298</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -4026,13 +4011,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C150" t="s">
-        <v>300</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -4040,13 +4025,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4054,13 +4039,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -4068,13 +4053,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -4082,13 +4067,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -4096,13 +4081,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -4110,13 +4095,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4124,13 +4109,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -4138,13 +4123,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -4152,13 +4137,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -4166,13 +4151,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -4180,13 +4165,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
@@ -4194,13 +4179,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -4208,13 +4193,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -4222,13 +4207,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>326</v>
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>441</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -4236,13 +4221,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" t="s">
-        <v>444</v>
+        <v>13</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -4250,13 +4235,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -4264,13 +4249,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -4278,13 +4263,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -4292,13 +4277,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -4306,13 +4291,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -4320,13 +4305,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -4334,13 +4319,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -4348,13 +4333,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" t="s">
         <v>343</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -4362,13 +4347,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" t="s">
         <v>345</v>
-      </c>
-      <c r="C174" t="s">
-        <v>346</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -4376,13 +4361,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" t="s">
         <v>347</v>
-      </c>
-      <c r="C175" t="s">
-        <v>348</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -4390,13 +4375,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" t="s">
         <v>349</v>
-      </c>
-      <c r="C176" t="s">
-        <v>350</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -4404,13 +4389,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" t="s">
         <v>351</v>
-      </c>
-      <c r="C177" t="s">
-        <v>352</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -4418,13 +4403,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" t="s">
         <v>353</v>
-      </c>
-      <c r="C178" t="s">
-        <v>354</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -4432,13 +4417,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" t="s">
         <v>355</v>
-      </c>
-      <c r="C179" t="s">
-        <v>356</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -4446,13 +4431,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" t="s">
         <v>357</v>
-      </c>
-      <c r="C180" t="s">
-        <v>358</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -4460,13 +4445,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" t="s">
         <v>359</v>
-      </c>
-      <c r="C181" t="s">
-        <v>360</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -4474,13 +4459,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" t="s">
         <v>361</v>
-      </c>
-      <c r="C182" t="s">
-        <v>362</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -4488,13 +4473,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" t="s">
         <v>363</v>
-      </c>
-      <c r="C183" t="s">
-        <v>364</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -4502,13 +4487,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="C184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
@@ -4516,13 +4501,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -4530,13 +4515,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" t="s">
         <v>368</v>
-      </c>
-      <c r="C186" t="s">
-        <v>369</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -4544,13 +4529,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" t="s">
         <v>370</v>
-      </c>
-      <c r="C187" t="s">
-        <v>371</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -4558,13 +4543,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" t="s">
         <v>372</v>
-      </c>
-      <c r="C188" t="s">
-        <v>373</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -4572,13 +4557,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
+        <v>373</v>
+      </c>
+      <c r="C189" t="s">
         <v>374</v>
-      </c>
-      <c r="C189" t="s">
-        <v>375</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -4586,13 +4571,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
+        <v>375</v>
+      </c>
+      <c r="C190" t="s">
         <v>376</v>
-      </c>
-      <c r="C190" t="s">
-        <v>377</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -4600,13 +4585,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" t="s">
         <v>378</v>
-      </c>
-      <c r="C191" t="s">
-        <v>379</v>
       </c>
       <c r="D191" t="b">
         <v>1</v>
@@ -4614,13 +4599,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
+        <v>379</v>
+      </c>
+      <c r="C192" t="s">
         <v>380</v>
-      </c>
-      <c r="C192" t="s">
-        <v>381</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -4628,13 +4613,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s">
         <v>382</v>
-      </c>
-      <c r="C193" t="s">
-        <v>383</v>
       </c>
       <c r="D193" t="b">
         <v>1</v>
@@ -4642,13 +4627,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
         <v>384</v>
-      </c>
-      <c r="C194" t="s">
-        <v>385</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -4656,13 +4641,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
         <v>386</v>
-      </c>
-      <c r="C195" t="s">
-        <v>387</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -4670,13 +4655,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" t="s">
         <v>388</v>
-      </c>
-      <c r="C196" t="s">
-        <v>389</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -4684,13 +4669,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
+        <v>389</v>
+      </c>
+      <c r="C197" t="s">
         <v>390</v>
-      </c>
-      <c r="C197" t="s">
-        <v>391</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -4698,13 +4683,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
+        <v>391</v>
+      </c>
+      <c r="C198" t="s">
         <v>392</v>
-      </c>
-      <c r="C198" t="s">
-        <v>393</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
@@ -4712,13 +4697,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
         <v>394</v>
-      </c>
-      <c r="C199" t="s">
-        <v>395</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -4726,13 +4711,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
+        <v>395</v>
+      </c>
+      <c r="C200" t="s">
         <v>396</v>
-      </c>
-      <c r="C200" t="s">
-        <v>397</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
@@ -4740,13 +4725,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
+        <v>397</v>
+      </c>
+      <c r="C201" t="s">
         <v>398</v>
-      </c>
-      <c r="C201" t="s">
-        <v>399</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
@@ -4754,13 +4739,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
+        <v>399</v>
+      </c>
+      <c r="C202" t="s">
         <v>400</v>
-      </c>
-      <c r="C202" t="s">
-        <v>401</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -4768,13 +4753,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203" t="s">
         <v>402</v>
-      </c>
-      <c r="C203" t="s">
-        <v>403</v>
       </c>
       <c r="D203" t="b">
         <v>1</v>
@@ -4782,13 +4767,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s">
         <v>404</v>
-      </c>
-      <c r="C204" t="s">
-        <v>405</v>
       </c>
       <c r="D204" t="b">
         <v>1</v>
@@ -4796,13 +4781,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
+        <v>405</v>
+      </c>
+      <c r="C205" t="s">
         <v>406</v>
-      </c>
-      <c r="C205" t="s">
-        <v>407</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
@@ -4810,13 +4795,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
+        <v>407</v>
+      </c>
+      <c r="C206" t="s">
         <v>408</v>
-      </c>
-      <c r="C206" t="s">
-        <v>409</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
@@ -4824,13 +4809,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
+        <v>409</v>
+      </c>
+      <c r="C207" t="s">
         <v>410</v>
-      </c>
-      <c r="C207" t="s">
-        <v>411</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
@@ -4838,13 +4823,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
+        <v>411</v>
+      </c>
+      <c r="C208" t="s">
         <v>412</v>
-      </c>
-      <c r="C208" t="s">
-        <v>413</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
@@ -4852,13 +4837,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
+        <v>413</v>
+      </c>
+      <c r="C209" t="s">
         <v>414</v>
-      </c>
-      <c r="C209" t="s">
-        <v>415</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -4866,13 +4851,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
+        <v>415</v>
+      </c>
+      <c r="C210" t="s">
         <v>416</v>
-      </c>
-      <c r="C210" t="s">
-        <v>417</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
@@ -4880,13 +4865,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
+        <v>417</v>
+      </c>
+      <c r="C211" t="s">
         <v>418</v>
-      </c>
-      <c r="C211" t="s">
-        <v>419</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -4894,13 +4879,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212" t="s">
         <v>420</v>
-      </c>
-      <c r="C212" t="s">
-        <v>421</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -4908,13 +4893,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
+        <v>421</v>
+      </c>
+      <c r="C213" t="s">
         <v>422</v>
-      </c>
-      <c r="C213" t="s">
-        <v>423</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -4922,13 +4907,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
+        <v>423</v>
+      </c>
+      <c r="C214" t="s">
         <v>424</v>
-      </c>
-      <c r="C214" t="s">
-        <v>425</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -4936,13 +4921,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" t="s">
         <v>426</v>
-      </c>
-      <c r="C215" t="s">
-        <v>427</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -4950,13 +4935,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
+        <v>427</v>
+      </c>
+      <c r="C216" t="s">
         <v>428</v>
-      </c>
-      <c r="C216" t="s">
-        <v>429</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
@@ -4964,13 +4949,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217" t="s">
         <v>430</v>
-      </c>
-      <c r="C217" t="s">
-        <v>431</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -4978,13 +4963,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
+        <v>431</v>
+      </c>
+      <c r="C218" t="s">
         <v>432</v>
-      </c>
-      <c r="C218" t="s">
-        <v>433</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -4992,13 +4977,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
+        <v>433</v>
+      </c>
+      <c r="C219" t="s">
         <v>434</v>
-      </c>
-      <c r="C219" t="s">
-        <v>435</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -5006,13 +4991,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
+        <v>435</v>
+      </c>
+      <c r="C220" t="s">
         <v>436</v>
-      </c>
-      <c r="C220" t="s">
-        <v>437</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -5020,13 +5005,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
+        <v>437</v>
+      </c>
+      <c r="C221" t="s">
         <v>438</v>
-      </c>
-      <c r="C221" t="s">
-        <v>439</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -5034,13 +5019,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" t="s">
         <v>440</v>
-      </c>
-      <c r="C222" t="s">
-        <v>441</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -5048,13 +5033,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C223" t="s">
-        <v>443</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
@@ -5062,13 +5047,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D224" t="b">
         <v>1</v>
@@ -5076,13 +5061,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
+        <v>441</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -5090,13 +5075,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
@@ -5104,13 +5089,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -5118,13 +5103,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
@@ -5132,13 +5117,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -5146,13 +5131,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -5160,13 +5145,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -5174,13 +5159,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -5188,13 +5173,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -5202,13 +5187,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -5216,13 +5201,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
@@ -5230,13 +5215,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -5244,13 +5229,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B237" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
@@ -5258,13 +5243,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B238" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
@@ -5272,13 +5257,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D239" t="b">
         <v>1</v>
@@ -5286,13 +5271,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B240" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D240" t="b">
         <v>1</v>
@@ -5300,13 +5285,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -5314,13 +5299,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B242" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
@@ -5328,13 +5313,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D243" t="b">
         <v>1</v>
@@ -5342,13 +5327,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B244" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -5356,13 +5341,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B245" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
@@ -5370,13 +5355,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -5384,13 +5369,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B247" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -5398,13 +5383,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B248" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -5412,13 +5397,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
@@ -5426,13 +5411,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B250" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
@@ -5440,13 +5425,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
@@ -5454,13 +5439,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D252" t="b">
         <v>1</v>
@@ -5468,13 +5453,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B253" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
@@ -5482,13 +5467,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D254" t="b">
         <v>1</v>
@@ -5496,203 +5481,189 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B256" t="s">
-        <v>444</v>
-      </c>
-      <c r="C256" s="3" t="s">
+      <c r="A256" t="s">
         <v>477</v>
       </c>
-      <c r="D256" t="b">
-        <v>1</v>
+      <c r="D256" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D257" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D258" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D259" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D260" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D261" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D262" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D263" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>486</v>
+      </c>
+      <c r="D265" t="s">
         <v>488</v>
-      </c>
-      <c r="D265" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>479</v>
+      </c>
+      <c r="D266" t="s">
         <v>489</v>
-      </c>
-      <c r="D266" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D267" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D268" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>497</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D269" t="s">
-        <v>492</v>
+      <c r="C269" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>500</v>
-      </c>
-      <c r="B270" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>497</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C271" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>497</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D270" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>500</v>
-      </c>
-      <c r="B271" s="5" t="s">
+      <c r="C272" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>497</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D271" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>500</v>
-      </c>
-      <c r="B272" s="5" t="s">
+      <c r="C273" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D272" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>500</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="D273" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>500</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D274" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/controlled_vocab_mapping.xlsx
+++ b/data-raw/controlled_vocab_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7C6A4-BF7B-4067-9E93-F4ABE6B17DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC7B4F-21A3-4765-A9F2-CA5D715D6EDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{86950A22-EF96-470E-9EC4-A018FD5DBEF2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="497">
   <si>
     <t>machine_name</t>
   </si>
@@ -1491,9 +1491,6 @@
   </si>
   <si>
     <t>field_wbddh_modified_date</t>
-  </si>
-  <si>
-    <t>field_upload</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -1910,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28C184-6D7E-43FA-B606-BF9631A08DC0}">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268:XFD268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,7 +5495,7 @@
         <v>477</v>
       </c>
       <c r="D256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5506,7 +5503,7 @@
         <v>478</v>
       </c>
       <c r="D257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,7 +5511,7 @@
         <v>479</v>
       </c>
       <c r="D258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,7 +5519,7 @@
         <v>480</v>
       </c>
       <c r="D259" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5530,7 +5527,7 @@
         <v>481</v>
       </c>
       <c r="D260" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,7 +5535,7 @@
         <v>482</v>
       </c>
       <c r="D261" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,7 +5543,7 @@
         <v>483</v>
       </c>
       <c r="D262" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5554,7 +5551,7 @@
         <v>484</v>
       </c>
       <c r="D263" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,7 +5559,7 @@
         <v>485</v>
       </c>
       <c r="D264" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,7 +5567,7 @@
         <v>486</v>
       </c>
       <c r="D265" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,7 +5575,7 @@
         <v>479</v>
       </c>
       <c r="D266" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,23 +5583,29 @@
         <v>478</v>
       </c>
       <c r="D267" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>487</v>
-      </c>
-      <c r="D268" t="s">
+        <v>496</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>489</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>491</v>
@@ -5611,9 +5614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>492</v>
@@ -5625,9 +5628,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>493</v>
@@ -5639,31 +5642,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>494</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D272" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>497</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D273" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/controlled_vocab_mapping.xlsx
+++ b/data-raw/controlled_vocab_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\eex2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC7B4F-21A3-4765-A9F2-CA5D715D6EDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98782743-D6E1-4F15-96DD-AAEEC2A01C75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{86950A22-EF96-470E-9EC4-A018FD5DBEF2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="464">
   <si>
     <t>machine_name</t>
   </si>
@@ -1356,105 +1356,6 @@
   </si>
   <si>
     <t>Region/Country not specified</t>
-  </si>
-  <si>
-    <t>AIA</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>ATA</t>
-  </si>
-  <si>
-    <t>ATF</t>
-  </si>
-  <si>
-    <t>BES</t>
-  </si>
-  <si>
-    <t>BLM</t>
-  </si>
-  <si>
-    <t>BVT</t>
-  </si>
-  <si>
-    <t>CCK</t>
-  </si>
-  <si>
-    <t>COK</t>
-  </si>
-  <si>
-    <t>CXR</t>
-  </si>
-  <si>
-    <t>ESH</t>
-  </si>
-  <si>
-    <t>FLK</t>
-  </si>
-  <si>
-    <t>GGY</t>
-  </si>
-  <si>
-    <t>GLP</t>
-  </si>
-  <si>
-    <t>GUF</t>
-  </si>
-  <si>
-    <t>HMD</t>
-  </si>
-  <si>
-    <t>IOT</t>
-  </si>
-  <si>
-    <t>JEY</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>MTQ</t>
-  </si>
-  <si>
-    <t>MYT</t>
-  </si>
-  <si>
-    <t>NFK</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>PCN</t>
-  </si>
-  <si>
-    <t>REU</t>
-  </si>
-  <si>
-    <t>SGS</t>
-  </si>
-  <si>
-    <t>SHN</t>
-  </si>
-  <si>
-    <t>SJM</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>TKL</t>
-  </si>
-  <si>
-    <t>UMI</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>WLF</t>
   </si>
   <si>
     <t>list_value_name</t>
@@ -1907,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28C184-6D7E-43FA-B606-BF9631A08DC0}">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268:XFD268"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,630 +4930,168 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B223" t="s">
-        <v>441</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D223" t="b">
-        <v>1</v>
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="D223" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" t="s">
-        <v>441</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D224" t="b">
-        <v>1</v>
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+      <c r="D224" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B225" t="s">
-        <v>441</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D225" t="b">
-        <v>1</v>
+      <c r="A225" t="s">
+        <v>446</v>
+      </c>
+      <c r="D225" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B226" t="s">
-        <v>441</v>
-      </c>
-      <c r="C226" s="3" t="s">
+      <c r="A226" t="s">
+        <v>447</v>
+      </c>
+      <c r="D226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="D227" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>449</v>
+      </c>
+      <c r="D228" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>450</v>
+      </c>
+      <c r="D229" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="D230" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>453</v>
+      </c>
+      <c r="D232" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>446</v>
+      </c>
+      <c r="D233" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>445</v>
       </c>
-      <c r="D226" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B227" t="s">
-        <v>441</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D227" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B228" t="s">
-        <v>441</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D228" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B229" t="s">
-        <v>441</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D229" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B230" t="s">
-        <v>441</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D230" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B231" t="s">
-        <v>441</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D231" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B232" t="s">
-        <v>441</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D232" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B233" t="s">
-        <v>441</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D233" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B234" t="s">
-        <v>441</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D234" t="b">
-        <v>1</v>
+      <c r="D234" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B235" t="s">
-        <v>441</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>454</v>
+      <c r="A235" t="s">
+        <v>463</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B236" t="s">
-        <v>441</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>455</v>
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B237" t="s">
-        <v>441</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>456</v>
+    <row r="237" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>463</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B238" t="s">
-        <v>441</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>457</v>
+      <c r="A238" t="s">
+        <v>463</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B239" t="s">
-        <v>441</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>458</v>
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D239" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B240" t="s">
-        <v>441</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D240" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B241" t="s">
-        <v>441</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D241" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B242" t="s">
-        <v>441</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D242" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B243" t="s">
-        <v>441</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D243" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B244" t="s">
-        <v>441</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D244" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B245" t="s">
-        <v>441</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D245" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B246" t="s">
-        <v>441</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D246" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B247" t="s">
-        <v>441</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D247" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B248" t="s">
-        <v>441</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D248" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B249" t="s">
-        <v>441</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D249" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B250" t="s">
-        <v>441</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D250" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B251" t="s">
-        <v>441</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D251" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B252" t="s">
-        <v>441</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D252" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B253" t="s">
-        <v>441</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D253" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B254" t="s">
-        <v>441</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D254" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B255" t="s">
-        <v>441</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D255" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>477</v>
-      </c>
-      <c r="D256" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>478</v>
-      </c>
-      <c r="D257" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>479</v>
-      </c>
-      <c r="D258" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>480</v>
-      </c>
-      <c r="D259" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>481</v>
-      </c>
-      <c r="D260" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>482</v>
-      </c>
-      <c r="D261" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>483</v>
-      </c>
-      <c r="D262" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>484</v>
-      </c>
-      <c r="D263" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>485</v>
-      </c>
-      <c r="D264" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>486</v>
-      </c>
-      <c r="D265" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>479</v>
-      </c>
-      <c r="D266" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>478</v>
-      </c>
-      <c r="D267" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>496</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D268" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>496</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D269" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>496</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D270" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>496</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D271" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>496</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D272" t="b">
         <v>1</v>
       </c>
     </row>
